--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H2">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I2">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J2">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>335.9184159143621</v>
+        <v>355.5420961214675</v>
       </c>
       <c r="R2">
-        <v>335.9184159143621</v>
+        <v>1422.16838448587</v>
       </c>
       <c r="S2">
-        <v>0.01207974249123164</v>
+        <v>0.01141931687372741</v>
       </c>
       <c r="T2">
-        <v>0.01207974249123164</v>
+        <v>0.006693964789392434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H3">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I3">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J3">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>1295.459772427565</v>
+        <v>1381.793758582938</v>
       </c>
       <c r="R3">
-        <v>1295.459772427565</v>
+        <v>8290.76255149763</v>
       </c>
       <c r="S3">
-        <v>0.04658518175039263</v>
+        <v>0.0443805134624806</v>
       </c>
       <c r="T3">
-        <v>0.04658518175039263</v>
+        <v>0.03902355951823644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H4">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I4">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J4">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>1859.243293709087</v>
+        <v>1901.807389743306</v>
       </c>
       <c r="R4">
-        <v>1859.243293709087</v>
+        <v>11410.84433845984</v>
       </c>
       <c r="S4">
-        <v>0.06685903229039043</v>
+        <v>0.06108233442167616</v>
       </c>
       <c r="T4">
-        <v>0.06685903229039043</v>
+        <v>0.05370938564810085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H5">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I5">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J5">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>1852.975467202481</v>
+        <v>1882.038746518553</v>
       </c>
       <c r="R5">
-        <v>1852.975467202481</v>
+        <v>11292.23247911132</v>
       </c>
       <c r="S5">
-        <v>0.06663363908003776</v>
+        <v>0.06044740425838545</v>
       </c>
       <c r="T5">
-        <v>0.06663363908003776</v>
+        <v>0.05315109478835122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H6">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I6">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J6">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>252.6323429573237</v>
+        <v>278.135663441534</v>
       </c>
       <c r="R6">
-        <v>252.6323429573237</v>
+        <v>1668.813980649204</v>
       </c>
       <c r="S6">
-        <v>0.009084746483976598</v>
+        <v>0.008933173622394874</v>
       </c>
       <c r="T6">
-        <v>0.009084746483976598</v>
+        <v>0.007854894081722985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.582854105485</v>
+        <v>23.7195445</v>
       </c>
       <c r="H7">
-        <v>23.582854105485</v>
+        <v>47.439089</v>
       </c>
       <c r="I7">
-        <v>0.223012603397711</v>
+        <v>0.205848174769845</v>
       </c>
       <c r="J7">
-        <v>0.223012603397711</v>
+        <v>0.1719138126598697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>605.3963232917478</v>
+        <v>609.7952855118309</v>
       </c>
       <c r="R7">
-        <v>605.3963232917478</v>
+        <v>2439.181142047324</v>
       </c>
       <c r="S7">
-        <v>0.02177026130168194</v>
+        <v>0.01958543213118055</v>
       </c>
       <c r="T7">
-        <v>0.02177026130168194</v>
+        <v>0.01148091383406578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H8">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I8">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J8">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>144.488240171122</v>
+        <v>165.31561989796</v>
       </c>
       <c r="R8">
-        <v>144.488240171122</v>
+        <v>991.89371938776</v>
       </c>
       <c r="S8">
-        <v>0.005195847121175241</v>
+        <v>0.005309614440554277</v>
       </c>
       <c r="T8">
-        <v>0.005195847121175241</v>
+        <v>0.004668716942966984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H9">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I9">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J9">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>557.2147696072128</v>
+        <v>642.489579330232</v>
       </c>
       <c r="R9">
-        <v>557.2147696072128</v>
+        <v>5782.406213972088</v>
       </c>
       <c r="S9">
-        <v>0.0200376359564701</v>
+        <v>0.02063550891575212</v>
       </c>
       <c r="T9">
-        <v>0.0200376359564701</v>
+        <v>0.02721704688174901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H10">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I10">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J10">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>799.7143914445953</v>
+        <v>884.279164103608</v>
       </c>
       <c r="R10">
-        <v>799.7143914445953</v>
+        <v>7958.512476932472</v>
       </c>
       <c r="S10">
-        <v>0.02875800628223226</v>
+        <v>0.02840131756517534</v>
       </c>
       <c r="T10">
-        <v>0.02875800628223226</v>
+        <v>0.03745970088892497</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H11">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I11">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J11">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>797.0184177237966</v>
+        <v>875.0873819070908</v>
       </c>
       <c r="R11">
-        <v>797.0184177237966</v>
+        <v>7875.786437163817</v>
       </c>
       <c r="S11">
-        <v>0.0286610581342073</v>
+        <v>0.02810609549532385</v>
       </c>
       <c r="T11">
-        <v>0.0286610581342073</v>
+        <v>0.03707031999463836</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H12">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I12">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J12">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>108.6644879080308</v>
+        <v>129.324122569888</v>
       </c>
       <c r="R12">
-        <v>108.6644879080308</v>
+        <v>1163.917103128992</v>
       </c>
       <c r="S12">
-        <v>0.003907612591877686</v>
+        <v>0.004153637926851231</v>
       </c>
       <c r="T12">
-        <v>0.003907612591877686</v>
+        <v>0.005478409020415491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.1436686007192</v>
+        <v>11.028824</v>
       </c>
       <c r="H13">
-        <v>10.1436686007192</v>
+        <v>33.086472</v>
       </c>
       <c r="I13">
-        <v>0.095924180022123</v>
+        <v>0.09571276928432844</v>
       </c>
       <c r="J13">
-        <v>0.095924180022123</v>
+        <v>0.1199015762925807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>260.3984932484091</v>
+        <v>283.535161475792</v>
       </c>
       <c r="R13">
-        <v>260.3984932484091</v>
+        <v>1701.210968854752</v>
       </c>
       <c r="S13">
-        <v>0.009364019936160388</v>
+        <v>0.009106594940671611</v>
       </c>
       <c r="T13">
-        <v>0.009364019936160388</v>
+        <v>0.008007382563885876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H14">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I14">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J14">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>58.59683977606544</v>
+        <v>80.28075853945001</v>
       </c>
       <c r="R14">
-        <v>58.59683977606544</v>
+        <v>481.6845512367</v>
       </c>
       <c r="S14">
-        <v>0.002107162637594967</v>
+        <v>0.002578460977267732</v>
       </c>
       <c r="T14">
-        <v>0.002107162637594967</v>
+        <v>0.002267227608732432</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H15">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I15">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J15">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>225.9770382479669</v>
+        <v>312.00651707419</v>
       </c>
       <c r="R15">
-        <v>225.9770382479669</v>
+        <v>2808.05865366771</v>
       </c>
       <c r="S15">
-        <v>0.008126212501736006</v>
+        <v>0.01002103920746697</v>
       </c>
       <c r="T15">
-        <v>0.008126212501736006</v>
+        <v>0.01321717312749553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H16">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I16">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J16">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>324.3221455711134</v>
+        <v>429.42464903611</v>
       </c>
       <c r="R16">
-        <v>324.3221455711134</v>
+        <v>3864.82184132499</v>
       </c>
       <c r="S16">
-        <v>0.01166273659644063</v>
+        <v>0.01379227999785771</v>
       </c>
       <c r="T16">
-        <v>0.01166273659644063</v>
+        <v>0.01819122236531574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H17">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I17">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J17">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>323.2288002582282</v>
+        <v>424.9609253569968</v>
       </c>
       <c r="R17">
-        <v>323.2288002582282</v>
+        <v>3824.64832821297</v>
       </c>
       <c r="S17">
-        <v>0.01162341952060333</v>
+        <v>0.01364891392198482</v>
       </c>
       <c r="T17">
-        <v>0.01162341952060333</v>
+        <v>0.01800213077449454</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H18">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I18">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J18">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>44.06860779641285</v>
+        <v>62.80252684996002</v>
       </c>
       <c r="R18">
-        <v>44.06860779641285</v>
+        <v>565.2227416496401</v>
       </c>
       <c r="S18">
-        <v>0.00158472238766291</v>
+        <v>0.0020170943536471</v>
       </c>
       <c r="T18">
-        <v>0.00158472238766291</v>
+        <v>0.002660431192284136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.11373910453818</v>
+        <v>5.35583</v>
       </c>
       <c r="H19">
-        <v>4.11373910453818</v>
+        <v>16.06749</v>
       </c>
       <c r="I19">
-        <v>0.03890180820771187</v>
+        <v>0.04648014340568721</v>
       </c>
       <c r="J19">
-        <v>0.03890180820771187</v>
+        <v>0.05822673925661452</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>105.6039492815105</v>
+        <v>137.69066619314</v>
       </c>
       <c r="R19">
-        <v>105.6039492815105</v>
+        <v>826.14399715884</v>
       </c>
       <c r="S19">
-        <v>0.003797554563674024</v>
+        <v>0.004422354947462869</v>
       </c>
       <c r="T19">
-        <v>0.003797554563674024</v>
+        <v>0.003888554188292141</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H20">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I20">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J20">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>74.09117221585372</v>
+        <v>113.6491099780983</v>
       </c>
       <c r="R20">
-        <v>74.09117221585372</v>
+        <v>681.89465986859</v>
       </c>
       <c r="S20">
-        <v>0.002664344194422429</v>
+        <v>0.0036501871744988</v>
       </c>
       <c r="T20">
-        <v>0.002664344194422429</v>
+        <v>0.003209590997120372</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H21">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I21">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J21">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>285.7304885663393</v>
+        <v>441.6906817767963</v>
       </c>
       <c r="R21">
-        <v>285.7304885663393</v>
+        <v>3975.216135991167</v>
       </c>
       <c r="S21">
-        <v>0.01027496725471316</v>
+        <v>0.01418624098356771</v>
       </c>
       <c r="T21">
-        <v>0.01027496725471316</v>
+        <v>0.01871083419856033</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H22">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I22">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J22">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>410.0802710991871</v>
+        <v>607.9131544531804</v>
       </c>
       <c r="R22">
-        <v>410.0802710991871</v>
+        <v>5471.218390078623</v>
       </c>
       <c r="S22">
-        <v>0.01474662846968031</v>
+        <v>0.01952498176203699</v>
       </c>
       <c r="T22">
-        <v>0.01474662846968031</v>
+        <v>0.02575232557395284</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H23">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I23">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J23">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>408.6978205066645</v>
+        <v>601.5941032564966</v>
       </c>
       <c r="R23">
-        <v>408.6978205066645</v>
+        <v>5414.346929308469</v>
       </c>
       <c r="S23">
-        <v>0.01469691506793344</v>
+        <v>0.0193220261943464</v>
       </c>
       <c r="T23">
-        <v>0.01469691506793344</v>
+        <v>0.02548463887801047</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H24">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I24">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J24">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>55.72134644180257</v>
+        <v>88.90612658282535</v>
       </c>
       <c r="R24">
-        <v>55.72134644180257</v>
+        <v>800.1551392454281</v>
       </c>
       <c r="S24">
-        <v>0.002003758902141523</v>
+        <v>0.002855490932129041</v>
       </c>
       <c r="T24">
-        <v>0.002003758902141523</v>
+        <v>0.003766227956260346</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.20150495504923</v>
+        <v>7.581957666666667</v>
       </c>
       <c r="H25">
-        <v>5.20150495504923</v>
+        <v>22.745873</v>
       </c>
       <c r="I25">
-        <v>0.04918832794465809</v>
+        <v>0.0657994147765176</v>
       </c>
       <c r="J25">
-        <v>0.04918832794465809</v>
+        <v>0.08242843258872844</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>133.5280268149651</v>
+        <v>194.9211984270447</v>
       </c>
       <c r="R25">
-        <v>133.5280268149651</v>
+        <v>1169.527190562268</v>
       </c>
       <c r="S25">
-        <v>0.004801714055767224</v>
+        <v>0.006260487729938659</v>
       </c>
       <c r="T25">
-        <v>0.004801714055767224</v>
+        <v>0.005504814984824084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H26">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I26">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J26">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>284.7052261681362</v>
+        <v>322.6266123835067</v>
       </c>
       <c r="R26">
-        <v>284.7052261681362</v>
+        <v>1935.75967430104</v>
       </c>
       <c r="S26">
-        <v>0.01023809846405003</v>
+        <v>0.01036213590147094</v>
       </c>
       <c r="T26">
-        <v>0.01023809846405003</v>
+        <v>0.009111373337961916</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H27">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I27">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J27">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>1097.957569538965</v>
+        <v>1253.869637962595</v>
       </c>
       <c r="R27">
-        <v>1097.957569538965</v>
+        <v>11284.82674166335</v>
       </c>
       <c r="S27">
-        <v>0.03948293418277639</v>
+        <v>0.04027184086057987</v>
       </c>
       <c r="T27">
-        <v>0.03948293418277639</v>
+        <v>0.05311623692886217</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H28">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I28">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J28">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>1575.788219279955</v>
+        <v>1725.741289856099</v>
       </c>
       <c r="R28">
-        <v>1575.788219279955</v>
+        <v>15531.67160870489</v>
       </c>
       <c r="S28">
-        <v>0.05666588971552865</v>
+        <v>0.05542743558616252</v>
       </c>
       <c r="T28">
-        <v>0.05666588971552865</v>
+        <v>0.0731055928420617</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H29">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I29">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J29">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>1570.47596821361</v>
+        <v>1707.802794064474</v>
       </c>
       <c r="R29">
-        <v>1570.47596821361</v>
+        <v>15370.22514658026</v>
       </c>
       <c r="S29">
-        <v>0.0564748593287142</v>
+        <v>0.05485128617961628</v>
       </c>
       <c r="T29">
-        <v>0.0564748593287142</v>
+        <v>0.07234568498261024</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H30">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I30">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J30">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>214.1167168321832</v>
+        <v>252.3863358462187</v>
       </c>
       <c r="R30">
-        <v>214.1167168321832</v>
+        <v>2271.477022615968</v>
       </c>
       <c r="S30">
-        <v>0.007699711238993589</v>
+        <v>0.008106155572200718</v>
       </c>
       <c r="T30">
-        <v>0.007699711238993589</v>
+        <v>0.01069155198159049</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>19.9874775948692</v>
+        <v>21.52362933333333</v>
       </c>
       <c r="H31">
-        <v>19.9874775948692</v>
+        <v>64.570888</v>
       </c>
       <c r="I31">
-        <v>0.1890127205912903</v>
+        <v>0.1867911001701303</v>
       </c>
       <c r="J31">
-        <v>0.1890127205912903</v>
+        <v>0.2339974855527565</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>513.0992794038297</v>
+        <v>553.3414730865013</v>
       </c>
       <c r="R31">
-        <v>513.0992794038297</v>
+        <v>3320.048838519008</v>
       </c>
       <c r="S31">
-        <v>0.01845122766122743</v>
+        <v>0.01777224607009999</v>
       </c>
       <c r="T31">
-        <v>0.01845122766122743</v>
+        <v>0.01562704547966999</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H32">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I32">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J32">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>608.4755843438911</v>
+        <v>689.7912860476926</v>
       </c>
       <c r="R32">
-        <v>608.4755843438911</v>
+        <v>2759.16514419077</v>
       </c>
       <c r="S32">
-        <v>0.02188099259479049</v>
+        <v>0.02215474723821019</v>
       </c>
       <c r="T32">
-        <v>0.02188099259479049</v>
+        <v>0.01298703762846545</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H33">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I33">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J33">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>2346.568704416678</v>
+        <v>2680.833870822334</v>
       </c>
       <c r="R33">
-        <v>2346.568704416678</v>
+        <v>16085.003224934</v>
       </c>
       <c r="S33">
-        <v>0.08438342271345717</v>
+        <v>0.08610314162709637</v>
       </c>
       <c r="T33">
-        <v>0.08438342271345717</v>
+        <v>0.07571005402703898</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H34">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I34">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J34">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>3367.794369051528</v>
+        <v>3689.718262610062</v>
       </c>
       <c r="R34">
-        <v>3367.794369051528</v>
+        <v>22138.30957566037</v>
       </c>
       <c r="S34">
-        <v>0.1211070510404341</v>
+        <v>0.1185065354430732</v>
       </c>
       <c r="T34">
-        <v>0.1211070510404341</v>
+        <v>0.104202193223212</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H35">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I35">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J35">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>3356.440959367833</v>
+        <v>3651.364891849818</v>
       </c>
       <c r="R35">
-        <v>3356.440959367833</v>
+        <v>21908.18935109891</v>
       </c>
       <c r="S35">
-        <v>0.1206987784990101</v>
+        <v>0.1172747001733134</v>
       </c>
       <c r="T35">
-        <v>0.1206987784990101</v>
+        <v>0.1031190467425663</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H36">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I36">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J36">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>457.6129358275876</v>
+        <v>539.6141809197142</v>
       </c>
       <c r="R36">
-        <v>457.6129358275876</v>
+        <v>3237.685085518285</v>
       </c>
       <c r="S36">
-        <v>0.01645591954346148</v>
+        <v>0.01733135228907996</v>
       </c>
       <c r="T36">
-        <v>0.01645591954346148</v>
+        <v>0.01523936982288876</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.7174880938649</v>
+        <v>46.0185595</v>
       </c>
       <c r="H37">
-        <v>42.7174880938649</v>
+        <v>92.037119</v>
       </c>
       <c r="I37">
-        <v>0.4039603598365057</v>
+        <v>0.3993683975934915</v>
       </c>
       <c r="J37">
-        <v>0.4039603598365057</v>
+        <v>0.3335319536494501</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>1096.602222810256</v>
+        <v>1183.070805982201</v>
       </c>
       <c r="R37">
-        <v>1096.602222810256</v>
+        <v>4732.283223928805</v>
       </c>
       <c r="S37">
-        <v>0.03943419544535237</v>
+        <v>0.03799792082271831</v>
       </c>
       <c r="T37">
-        <v>0.03943419544535237</v>
+        <v>0.02227425220527863</v>
       </c>
     </row>
   </sheetData>
